--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,93 +461,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>O=C2C(N=Cc1ccccc1)=C(N(N2c3ccccc3)C)C</t>
+          <t>c1ccccc1CCCO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9594785211171445</v>
+        <v>3.534113005348666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9262151718139648</v>
+        <v>3.158349275588989</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>O=C2C(N=Cc1ccc(O)c(OC)c1)=C(N(N2c3ccccc3)C)C</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>-0.4187764782634734</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-0.306893527507782</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>O=Cc3ccccc3(C=NC=2C(=O)N(c1ccccc1)N(C=2C)C)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1.041650184914474</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.009220838546753</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>O=C(NN=Cc1cc(OC)c(O)c(OC)c1)c2ccncc2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7094480530516308</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.6707422137260437</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>O=C4Oc2cc(OCc1ccccc1)ccc2C(C=NNc3ccc(cc3[N+](=O)[O-])[N+](=O)[O-])=C4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6847380309859915</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.7923527956008911</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
